--- a/VM Allocations.xlsx
+++ b/VM Allocations.xlsx
@@ -5,27 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redgate365.sharepoint.com/sites/MarketingShare/Shared Documents/Accounts Based Marketing/APAC/Events/2022/Database DevOps In A Day/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anderson.rangel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_4389D07C932BC9C216CD0DBDB030510BEBC85E06" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{155735CB-0184-4E8F-807E-64C044E4FB90}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237721E7-1195-4B8E-80A7-55EDCF40B7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Braden Gabel</t>
   </si>
@@ -79,13 +89,19 @@
   </si>
   <si>
     <t>IP Address</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>63.35.235.192</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +124,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -144,6 +166,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +561,14 @@
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -559,20 +590,11 @@
     <hyperlink ref="B11" r:id="rId15" tooltip="Andrew Preston" display="https://redgate.lightning.force.com/lightning/r/00v6700001JB2qCAAT/view" xr:uid="{82B0929A-BF51-4C66-8516-C4E3F4D0121F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003760C779E989E145AAD13EC3F1475DCA" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ce6efeaf834f4b358554b60f2b895b37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09261daf-a6c8-4475-bfe4-e465f101f752" xmlns:ns3="cfa6ec7d-b27d-4976-a2d2-0968bdeefb84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="462930a0818d808bb05122dc0199c47f" ns2:_="" ns3:_="">
     <xsd:import namespace="09261daf-a6c8-4475-bfe4-e465f101f752"/>
@@ -831,15 +853,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99226A5A-D983-48AD-8D35-06A9356A7BEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55EFCF3-67FC-4621-9BF6-B4D607002CC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -856,4 +879,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99226A5A-D983-48AD-8D35-06A9356A7BEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>